--- a/共同開発チュートリアル.xlsx
+++ b/共同開発チュートリアル.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>■Gitでのコミット</t>
     <phoneticPr fontId="1"/>
@@ -347,6 +347,16 @@
   </si>
   <si>
     <t>https://github.com/WitStudy/Practice</t>
+  </si>
+  <si>
+    <t>（ブランチについては省略します。ここでは master ブランチを扱うものとしてください。）</t>
+    <rPh sb="10" eb="12">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -554,13 +564,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -609,13 +619,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -988,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C206"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="J209" sqref="J209"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T136" sqref="T136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1096,25 +1106,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C178" t="s">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C141" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C179" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C204" t="s">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C205" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C206" s="3" t="s">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C207" s="3" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C206" r:id="rId1"/>
+    <hyperlink ref="C207" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
